--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4526877.536929803</v>
+        <v>-4527544.224032177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394074.1703819042</v>
+        <v>394074.1703819046</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.57756011096851</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="I11" t="n">
-        <v>36.21910086722862</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.91776996152066</v>
+        <v>22.91776996152072</v>
       </c>
       <c r="T11" t="n">
-        <v>18.09022035898431</v>
+        <v>18.09022035898444</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82706754482445</v>
+        <v>45.82706754482451</v>
       </c>
       <c r="V11" t="n">
-        <v>83.81099470625611</v>
+        <v>70.79666097819671</v>
       </c>
       <c r="W11" t="n">
-        <v>83.81099470625611</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>45.72573307694068</v>
       </c>
       <c r="T12" t="n">
+        <v>10.62223208240267</v>
+      </c>
+      <c r="U12" t="n">
+        <v>32.90513957632349</v>
+      </c>
+      <c r="V12" t="n">
+        <v>36.32641845505597</v>
+      </c>
+      <c r="W12" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="U12" t="n">
-        <v>83.81099470625611</v>
-      </c>
-      <c r="V12" t="n">
-        <v>63.19744207405765</v>
-      </c>
-      <c r="W12" t="n">
-        <v>62.38208111666526</v>
-      </c>
       <c r="X12" t="n">
-        <v>12.99041197912427</v>
+        <v>12.99041197912433</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.06178367367929</v>
+        <v>19.06178367367934</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.02061210103634</v>
+        <v>31.0206121010364</v>
       </c>
       <c r="T13" t="n">
-        <v>19.41578159860735</v>
+        <v>19.4157815986074</v>
       </c>
       <c r="U13" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="V13" t="n">
-        <v>40.78651272410357</v>
+        <v>40.78651272410363</v>
       </c>
       <c r="W13" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5969529478962</v>
+        <v>17.59695294789626</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.81877035382209</v>
+        <v>12.81877035382215</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.57756011096874</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>34.57756011096802</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.21910086722853</v>
+        <v>36.21910086722868</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.91776996152058</v>
+        <v>22.91776996152072</v>
       </c>
       <c r="T14" t="n">
-        <v>18.09022035898432</v>
+        <v>18.09022035898437</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82706754482434</v>
+        <v>45.82706754482468</v>
       </c>
       <c r="V14" t="n">
-        <v>83.81099470625611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>83.81099470625611</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="T15" t="n">
+        <v>24.25223343752711</v>
+      </c>
+      <c r="U15" t="n">
+        <v>32.90513957632349</v>
+      </c>
+      <c r="V15" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="U15" t="n">
-        <v>32.90513957632335</v>
-      </c>
-      <c r="V15" t="n">
-        <v>36.32641845505583</v>
-      </c>
       <c r="W15" t="n">
-        <v>83.81099470625611</v>
+        <v>62.38208111666532</v>
       </c>
       <c r="X15" t="n">
-        <v>63.2983080782612</v>
+        <v>12.99041197912433</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.0617836736792</v>
+        <v>19.06178367367934</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103626</v>
+        <v>31.0206121010364</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860726</v>
+        <v>19.4157815986074</v>
       </c>
       <c r="U16" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="V16" t="n">
-        <v>40.78651272410349</v>
+        <v>40.78651272410363</v>
       </c>
       <c r="W16" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="X16" t="n">
-        <v>17.59695294789611</v>
+        <v>17.59695294789626</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.818770353822</v>
+        <v>12.81877035382215</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>35.7611961829673</v>
       </c>
       <c r="F17" t="n">
-        <v>67.48153376134502</v>
+        <v>67.48153376134472</v>
       </c>
       <c r="G17" t="n">
         <v>83.10831349049285</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.040069060206889</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="T18" t="n">
-        <v>67.78065507706347</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>83.81099470625611</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>83.81099470625611</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>73.82072413727037</v>
       </c>
     </row>
     <row r="19">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>83.81099470625611</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>67.78065507706347</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>83.81099470625611</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>67.48153376134462</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10831349049283</v>
+        <v>83.10831349049285</v>
       </c>
       <c r="H23" t="n">
         <v>11.1793171530847</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R24" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>83.81099470625625</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>67.78065507706349</v>
       </c>
       <c r="Y24" t="n">
-        <v>73.8207241372705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2448337039202</v>
+        <v>161.2448337039204</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3630907072657</v>
+        <v>137.3630907072659</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9297529683142</v>
+        <v>124.9297529683144</v>
       </c>
       <c r="E26" t="n">
-        <v>158.636505387723</v>
+        <v>158.6365053877232</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3568429661004</v>
+        <v>190.3568429661006</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952486</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0546263578404</v>
+        <v>134.0546263578406</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69919665366185</v>
+        <v>27.69919665366203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39786574795389</v>
+        <v>14.39786574795409</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417541</v>
+        <v>9.570316145417657</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30716333125982</v>
+        <v>37.30716333125914</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0373769352389</v>
+        <v>108.0373769352391</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0540571518538</v>
+        <v>125.054057151854</v>
       </c>
       <c r="X26" t="n">
-        <v>146.940307620793</v>
+        <v>146.9403076207932</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4431607445368</v>
+        <v>169.443160744537</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.20618829104771</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3163923318781</v>
+        <v>26.3997846028961</v>
       </c>
       <c r="S27" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.102327868835837</v>
+        <v>2.102327868836036</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276420366697</v>
+        <v>24.38523536275686</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80651424148914</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86217690309849</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4705077655575</v>
+        <v>4.470507765557699</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54187946011251</v>
+        <v>10.54187946011271</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50070788746957</v>
+        <v>22.50070788746977</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89587738504057</v>
+        <v>10.89587738504077</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81385317476268</v>
+        <v>75.81385317476288</v>
       </c>
       <c r="V28" t="n">
-        <v>32.2666085105368</v>
+        <v>32.266608510537</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46830041542222</v>
+        <v>77.46830041542242</v>
       </c>
       <c r="X28" t="n">
-        <v>9.077048734329423</v>
+        <v>9.077048734329622</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.298866140255313</v>
+        <v>4.298866140255512</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2448337039203</v>
+        <v>161.2448337039204</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3630907072658</v>
+        <v>137.3630907072659</v>
       </c>
       <c r="D29" t="n">
         <v>124.9297529683143</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6365053877231</v>
+        <v>158.6365053877232</v>
       </c>
       <c r="F29" t="n">
         <v>190.3568429661005</v>
@@ -2807,10 +2807,10 @@
         <v>205.9836226952487</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0546263578405</v>
+        <v>134.0546263578406</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69919665366193</v>
+        <v>27.69919665366197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39786574795397</v>
+        <v>14.39786574795403</v>
       </c>
       <c r="T29" t="n">
-        <v>9.570316145417657</v>
+        <v>9.570316145417678</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30716333125847</v>
+        <v>37.30716333125778</v>
       </c>
       <c r="V29" t="n">
-        <v>108.037376935239</v>
+        <v>108.0373769352391</v>
       </c>
       <c r="W29" t="n">
         <v>125.0540571518539</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9403076207931</v>
+        <v>146.9403076207932</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4431607445369</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.63212747619626</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.102327868835923</v>
+        <v>2.102327868835979</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276420366697</v>
+        <v>24.3852353627568</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80651424148923</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86217690309857</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>94.67669605660491</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5418794601126</v>
+        <v>10.54187946011265</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50070788746965</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89587738504066</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81385317476277</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26660851053688</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46830041542231</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X31" t="n">
-        <v>9.077048734329509</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.298866140255399</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2448337039204</v>
+        <v>161.2448337039203</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3630907072659</v>
+        <v>137.3630907072658</v>
       </c>
       <c r="D32" t="n">
         <v>124.9297529683143</v>
@@ -3041,13 +3041,13 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9836226952488</v>
+        <v>205.9836226952487</v>
       </c>
       <c r="H32" t="n">
         <v>134.0546263578406</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69919665366152</v>
+        <v>27.69919665366275</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39786574795406</v>
+        <v>14.397865747954</v>
       </c>
       <c r="T32" t="n">
-        <v>9.570316145417706</v>
+        <v>9.570316145417655</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30716333125787</v>
+        <v>37.30716333125781</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0373769352391</v>
+        <v>108.037376935239</v>
       </c>
       <c r="W32" t="n">
-        <v>125.054057151854</v>
+        <v>125.0540571518539</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9403076207932</v>
+        <v>146.9403076207931</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.443160744537</v>
+        <v>169.4431607445369</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T33" t="n">
-        <v>2.102327868836008</v>
+        <v>13.78250181784827</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38523536275683</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V33" t="n">
-        <v>143.3369576820832</v>
+        <v>27.80651424148925</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86217690309866</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.47050776555767</v>
+        <v>4.470507765557613</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54187946011268</v>
+        <v>10.54187946011263</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50070788746974</v>
+        <v>22.50070788746968</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89587738504074</v>
+        <v>10.89587738504069</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81385317476285</v>
+        <v>75.8138531747628</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26660851053697</v>
+        <v>32.26660851053691</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46830041542239</v>
+        <v>77.46830041542233</v>
       </c>
       <c r="X34" t="n">
-        <v>9.077048734329594</v>
+        <v>9.077048734329537</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.298866140255484</v>
+        <v>4.298866140255427</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3272,16 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E35" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F35" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G35" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H35" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I35" t="n">
         <v>4.523386933456834</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V35" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W35" t="n">
         <v>101.8782474316488</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>25.42209329805015</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R36" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S36" t="n">
-        <v>130.1978933347645</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276420366697</v>
+        <v>1.209425642551663</v>
       </c>
       <c r="V36" t="n">
-        <v>4.630704521284116</v>
+        <v>4.630704521284144</v>
       </c>
       <c r="W36" t="n">
-        <v>30.68636718289346</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V37" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W37" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>110.8788166376355</v>
       </c>
       <c r="I38" t="n">
-        <v>4.523386933456862</v>
+        <v>4.523386933456834</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.13135361105241</v>
+        <v>14.13135361105286</v>
       </c>
       <c r="V38" t="n">
         <v>84.86156721503392</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R39" t="n">
-        <v>34.5361383327315</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276420366697</v>
+        <v>1.209425642551663</v>
       </c>
       <c r="V39" t="n">
         <v>4.630704521284144</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>203.0641919635047</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E41" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F41" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G41" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H41" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I41" t="n">
         <v>4.523386933456834</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V41" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W41" t="n">
         <v>101.8782474316488</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.040069060206889</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276420366697</v>
       </c>
       <c r="V42" t="n">
-        <v>4.630704521284116</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>116.0819785551488</v>
+        <v>65.22250551562509</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V43" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W43" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>110.8788166376355</v>
       </c>
       <c r="I44" t="n">
-        <v>4.523386933456909</v>
+        <v>4.523386933456905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>115.1644805436024</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276420366697</v>
+        <v>1.20942564255172</v>
       </c>
       <c r="V45" t="n">
-        <v>57.87214480866299</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>30.68636718289355</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="E11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="F11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="G11" t="n">
-        <v>43.28982994743849</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="H11" t="n">
-        <v>43.28982994743849</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I11" t="n">
         <v>6.704879576500489</v>
@@ -5045,22 +5045,22 @@
         <v>6.704879576500489</v>
       </c>
       <c r="L11" t="n">
-        <v>89.67776433569404</v>
+        <v>55.32290868514215</v>
       </c>
       <c r="M11" t="n">
-        <v>172.6506490948876</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6235338540811</v>
+        <v>216.0248610749297</v>
       </c>
       <c r="O11" t="n">
-        <v>325.1422444635012</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1422444635012</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.1422444635012</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R11" t="n">
         <v>335.2439788250244</v>
@@ -5069,22 +5069,22 @@
         <v>312.0947162376298</v>
       </c>
       <c r="T11" t="n">
-        <v>293.8217663800699</v>
+        <v>293.8217663800697</v>
       </c>
       <c r="U11" t="n">
-        <v>247.5317991630755</v>
+        <v>247.5317991630753</v>
       </c>
       <c r="V11" t="n">
-        <v>162.8742287527158</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="W11" t="n">
-        <v>78.21665834235617</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="X11" t="n">
-        <v>78.21665834235617</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.21665834235617</v>
+        <v>176.0200203972199</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>6.704879576500489</v>
       </c>
       <c r="M12" t="n">
-        <v>89.67776433569404</v>
+        <v>86.32532454744377</v>
       </c>
       <c r="N12" t="n">
         <v>169.2982093066373</v>
@@ -5142,25 +5142,25 @@
         <v>335.2439788250244</v>
       </c>
       <c r="R12" t="n">
-        <v>335.2439788250244</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="S12" t="n">
-        <v>335.2439788250244</v>
+        <v>204.3987992460378</v>
       </c>
       <c r="T12" t="n">
-        <v>250.5864084146647</v>
+        <v>193.6692718900755</v>
       </c>
       <c r="U12" t="n">
-        <v>165.928838004305</v>
+        <v>160.4317571665164</v>
       </c>
       <c r="V12" t="n">
-        <v>102.0930379294993</v>
+        <v>123.7384051917124</v>
       </c>
       <c r="W12" t="n">
-        <v>39.08083478135257</v>
+        <v>39.08083478135269</v>
       </c>
       <c r="X12" t="n">
-        <v>25.95920651961088</v>
+        <v>25.95920651961094</v>
       </c>
       <c r="Y12" t="n">
         <v>6.704879576500489</v>
@@ -5203,7 +5203,7 @@
         <v>6.704879576500489</v>
       </c>
       <c r="L13" t="n">
-        <v>89.67776433569404</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M13" t="n">
         <v>89.67776433569404</v>
@@ -5212,34 +5212,34 @@
         <v>172.6506490948876</v>
       </c>
       <c r="O13" t="n">
-        <v>172.6506490948876</v>
+        <v>220.9752020906272</v>
       </c>
       <c r="P13" t="n">
-        <v>220.9752020906269</v>
+        <v>220.9752020906272</v>
       </c>
       <c r="Q13" t="n">
-        <v>297.7612306876661</v>
+        <v>297.7612306876665</v>
       </c>
       <c r="R13" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502157</v>
       </c>
       <c r="S13" t="n">
-        <v>267.553371533007</v>
+        <v>267.5533715330072</v>
       </c>
       <c r="T13" t="n">
-        <v>247.9414709283531</v>
+        <v>247.9414709283533</v>
       </c>
       <c r="U13" t="n">
-        <v>163.2839005179934</v>
+        <v>163.2839005179936</v>
       </c>
       <c r="V13" t="n">
-        <v>122.0854028168787</v>
+        <v>122.0854028168788</v>
       </c>
       <c r="W13" t="n">
-        <v>37.42783240651896</v>
+        <v>37.42783240651908</v>
       </c>
       <c r="X13" t="n">
-        <v>19.65313245914906</v>
+        <v>19.65313245914912</v>
       </c>
       <c r="Y13" t="n">
         <v>6.704879576500489</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.2898299474384</v>
+        <v>78.21665834235574</v>
       </c>
       <c r="C14" t="n">
-        <v>43.2898299474384</v>
+        <v>78.21665834235574</v>
       </c>
       <c r="D14" t="n">
-        <v>43.2898299474384</v>
+        <v>78.21665834235574</v>
       </c>
       <c r="E14" t="n">
-        <v>43.2898299474384</v>
+        <v>78.21665834235574</v>
       </c>
       <c r="F14" t="n">
-        <v>43.2898299474384</v>
+        <v>78.21665834235574</v>
       </c>
       <c r="G14" t="n">
-        <v>43.2898299474384</v>
+        <v>43.28982994743855</v>
       </c>
       <c r="H14" t="n">
-        <v>43.2898299474384</v>
+        <v>43.28982994743855</v>
       </c>
       <c r="I14" t="n">
         <v>6.704879576500489</v>
       </c>
       <c r="J14" t="n">
-        <v>6.704879576500489</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="K14" t="n">
-        <v>33.10540907338923</v>
+        <v>89.67776433569404</v>
       </c>
       <c r="L14" t="n">
-        <v>81.72343818203088</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="M14" t="n">
-        <v>164.6963229412244</v>
+        <v>221.2686782035292</v>
       </c>
       <c r="N14" t="n">
-        <v>242.1693597043076</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="O14" t="n">
-        <v>325.1422444635011</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1422444635011</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="Q14" t="n">
-        <v>325.1422444635011</v>
+        <v>334.9879479575136</v>
       </c>
       <c r="R14" t="n">
         <v>335.2439788250244</v>
       </c>
       <c r="S14" t="n">
-        <v>312.0947162376299</v>
+        <v>312.0947162376298</v>
       </c>
       <c r="T14" t="n">
-        <v>293.82176638007</v>
+        <v>293.8217663800698</v>
       </c>
       <c r="U14" t="n">
-        <v>247.5317991630757</v>
+        <v>247.5317991630752</v>
       </c>
       <c r="V14" t="n">
-        <v>162.874228752716</v>
+        <v>247.5317991630752</v>
       </c>
       <c r="W14" t="n">
-        <v>78.21665834235631</v>
+        <v>162.8742287527155</v>
       </c>
       <c r="X14" t="n">
-        <v>78.21665834235631</v>
+        <v>162.8742287527155</v>
       </c>
       <c r="Y14" t="n">
-        <v>78.21665834235631</v>
+        <v>162.8742287527155</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>6.704879576500489</v>
       </c>
       <c r="M15" t="n">
-        <v>89.67776433569404</v>
+        <v>86.32532454744377</v>
       </c>
       <c r="N15" t="n">
-        <v>172.6506490948876</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="O15" t="n">
         <v>252.2710940658309</v>
@@ -5382,22 +5382,22 @@
         <v>329.1428989662296</v>
       </c>
       <c r="S15" t="n">
-        <v>329.1428989662296</v>
+        <v>244.4853285558699</v>
       </c>
       <c r="T15" t="n">
-        <v>244.4853285558699</v>
+        <v>219.9881230634183</v>
       </c>
       <c r="U15" t="n">
-        <v>211.247813832311</v>
+        <v>186.7506083398592</v>
       </c>
       <c r="V15" t="n">
-        <v>174.5544618575071</v>
+        <v>102.0930379294995</v>
       </c>
       <c r="W15" t="n">
-        <v>89.89689144714737</v>
+        <v>39.08083478135269</v>
       </c>
       <c r="X15" t="n">
-        <v>25.9592065196108</v>
+        <v>25.95920651961094</v>
       </c>
       <c r="Y15" t="n">
         <v>6.704879576500489</v>
@@ -5428,55 +5428,55 @@
         <v>6.704879576500489</v>
       </c>
       <c r="H16" t="n">
-        <v>6.704879576500489</v>
+        <v>44.86594957074384</v>
       </c>
       <c r="I16" t="n">
-        <v>6.704879576500489</v>
+        <v>44.86594957074384</v>
       </c>
       <c r="J16" t="n">
-        <v>6.704879576500489</v>
+        <v>127.8388343299374</v>
       </c>
       <c r="K16" t="n">
-        <v>89.67776433569404</v>
+        <v>127.8388343299374</v>
       </c>
       <c r="L16" t="n">
-        <v>89.67776433569404</v>
+        <v>127.8388343299374</v>
       </c>
       <c r="M16" t="n">
-        <v>172.6506490948876</v>
+        <v>127.8388343299374</v>
       </c>
       <c r="N16" t="n">
-        <v>214.788345928472</v>
+        <v>210.8117190891309</v>
       </c>
       <c r="O16" t="n">
-        <v>297.7612306876656</v>
+        <v>214.7883459284729</v>
       </c>
       <c r="P16" t="n">
-        <v>297.7612306876656</v>
+        <v>297.7612306876665</v>
       </c>
       <c r="Q16" t="n">
-        <v>297.7612306876656</v>
+        <v>297.7612306876665</v>
       </c>
       <c r="R16" t="n">
-        <v>298.887323150215</v>
+        <v>298.8873231502157</v>
       </c>
       <c r="S16" t="n">
-        <v>267.5533715330067</v>
+        <v>267.5533715330072</v>
       </c>
       <c r="T16" t="n">
-        <v>247.9414709283529</v>
+        <v>247.9414709283533</v>
       </c>
       <c r="U16" t="n">
-        <v>163.2839005179931</v>
+        <v>163.2839005179936</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168785</v>
+        <v>122.0854028168788</v>
       </c>
       <c r="W16" t="n">
-        <v>37.42783240651879</v>
+        <v>37.42783240651908</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914898</v>
+        <v>19.65313245914912</v>
       </c>
       <c r="Y16" t="n">
         <v>6.704879576500489</v>
@@ -5495,13 +5495,13 @@
         <v>208.3056920527106</v>
       </c>
       <c r="D17" t="n">
-        <v>206.2304963319446</v>
+        <v>206.2304963319445</v>
       </c>
       <c r="E17" t="n">
-        <v>170.1080759451088</v>
+        <v>170.1080759451089</v>
       </c>
       <c r="F17" t="n">
-        <v>101.9449105296088</v>
+        <v>101.9449105296091</v>
       </c>
       <c r="G17" t="n">
         <v>17.99711912507089</v>
@@ -5519,7 +5519,7 @@
         <v>6.704879576500489</v>
       </c>
       <c r="L17" t="n">
-        <v>55.32290868514214</v>
+        <v>55.32290868514215</v>
       </c>
       <c r="M17" t="n">
         <v>138.2957934443357</v>
@@ -5534,25 +5534,25 @@
         <v>252.01506319832</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782028</v>
       </c>
       <c r="R17" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782028</v>
       </c>
       <c r="S17" t="n">
-        <v>252.01506319832</v>
+        <v>320.5544258782028</v>
       </c>
       <c r="T17" t="n">
-        <v>334.9879479575136</v>
+        <v>320.5544258782028</v>
       </c>
       <c r="U17" t="n">
-        <v>334.9879479575136</v>
+        <v>320.5544258782028</v>
       </c>
       <c r="V17" t="n">
         <v>335.2439788250244</v>
       </c>
       <c r="W17" t="n">
-        <v>333.0432233229053</v>
+        <v>333.0432233229054</v>
       </c>
       <c r="X17" t="n">
         <v>308.7351441147869</v>
@@ -5601,7 +5601,7 @@
         <v>6.704879576500489</v>
       </c>
       <c r="M18" t="n">
-        <v>89.67776433569404</v>
+        <v>86.32532454744377</v>
       </c>
       <c r="N18" t="n">
         <v>169.2982093066373</v>
@@ -5613,28 +5613,28 @@
         <v>335.2439788250244</v>
       </c>
       <c r="Q18" t="n">
-        <v>329.1428989662296</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R18" t="n">
-        <v>244.4853285558699</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="S18" t="n">
-        <v>244.4853285558699</v>
+        <v>165.928838004305</v>
       </c>
       <c r="T18" t="n">
-        <v>176.0200203972199</v>
+        <v>165.928838004305</v>
       </c>
       <c r="U18" t="n">
-        <v>91.3624499868602</v>
+        <v>165.928838004305</v>
       </c>
       <c r="V18" t="n">
-        <v>6.704879576500489</v>
+        <v>81.27126759394531</v>
       </c>
       <c r="W18" t="n">
-        <v>6.704879576500489</v>
+        <v>81.27126759394531</v>
       </c>
       <c r="X18" t="n">
-        <v>6.704879576500489</v>
+        <v>81.27126759394531</v>
       </c>
       <c r="Y18" t="n">
         <v>6.704879576500489</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.9398147825189</v>
+        <v>222.9398147825184</v>
       </c>
       <c r="C20" t="n">
-        <v>208.3056920527106</v>
+        <v>208.3056920527104</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319446</v>
+        <v>206.2304963319443</v>
       </c>
       <c r="E20" t="n">
-        <v>170.1080759451089</v>
+        <v>170.1080759451088</v>
       </c>
       <c r="F20" t="n">
-        <v>101.9449105296093</v>
+        <v>101.9449105296089</v>
       </c>
       <c r="G20" t="n">
         <v>17.99711912507089</v>
@@ -5756,25 +5756,25 @@
         <v>6.704879576500489</v>
       </c>
       <c r="L20" t="n">
-        <v>55.32290868514214</v>
+        <v>55.32290868514215</v>
       </c>
       <c r="M20" t="n">
         <v>138.2957934443357</v>
       </c>
       <c r="N20" t="n">
-        <v>216.0248610749297</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O20" t="n">
-        <v>252.2710940658309</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="P20" t="n">
-        <v>252.2710940658309</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.2710940658309</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="R20" t="n">
-        <v>252.2710940658309</v>
+        <v>298.7417149666124</v>
       </c>
       <c r="S20" t="n">
         <v>335.2439788250244</v>
@@ -5789,13 +5789,13 @@
         <v>335.2439788250244</v>
       </c>
       <c r="W20" t="n">
-        <v>333.0432233229054</v>
+        <v>333.0432233229051</v>
       </c>
       <c r="X20" t="n">
-        <v>308.735144114787</v>
+        <v>308.7351441147866</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.6969102362203</v>
+        <v>261.6969102362199</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.704879576500489</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="C21" t="n">
-        <v>6.704879576500489</v>
+        <v>91.3624499868602</v>
       </c>
       <c r="D21" t="n">
         <v>6.704879576500489</v>
@@ -5856,25 +5856,25 @@
         <v>329.1428989662296</v>
       </c>
       <c r="S21" t="n">
-        <v>244.4853285558699</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="T21" t="n">
+        <v>260.6775908075796</v>
+      </c>
+      <c r="U21" t="n">
+        <v>260.6775908075796</v>
+      </c>
+      <c r="V21" t="n">
+        <v>260.6775908075796</v>
+      </c>
+      <c r="W21" t="n">
+        <v>260.6775908075796</v>
+      </c>
+      <c r="X21" t="n">
         <v>176.0200203972199</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>91.3624499868602</v>
-      </c>
-      <c r="V21" t="n">
-        <v>91.3624499868602</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6.704879576500489</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6.704879576500489</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.939814782519</v>
+        <v>222.9398147825185</v>
       </c>
       <c r="C23" t="n">
-        <v>208.305692052711</v>
+        <v>208.3056920527105</v>
       </c>
       <c r="D23" t="n">
-        <v>206.2304963319449</v>
+        <v>206.2304963319444</v>
       </c>
       <c r="E23" t="n">
-        <v>170.1080759451094</v>
+        <v>170.1080759451087</v>
       </c>
       <c r="F23" t="n">
-        <v>101.9449105296095</v>
+        <v>101.9449105296091</v>
       </c>
       <c r="G23" t="n">
-        <v>17.9971191250709</v>
+        <v>17.99711912507089</v>
       </c>
       <c r="H23" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I23" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J23" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K23" t="n">
-        <v>37.70729543880232</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L23" t="n">
-        <v>86.32532454744397</v>
+        <v>55.32290868514215</v>
       </c>
       <c r="M23" t="n">
-        <v>169.2982093066377</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="N23" t="n">
-        <v>252.2710940658313</v>
+        <v>215.7688302074188</v>
       </c>
       <c r="O23" t="n">
-        <v>335.243978825025</v>
+        <v>252.01506319832</v>
       </c>
       <c r="P23" t="n">
-        <v>335.243978825025</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.243978825025</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="R23" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S23" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T23" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U23" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V23" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0432233229056</v>
+        <v>333.0432233229051</v>
       </c>
       <c r="X23" t="n">
-        <v>308.7351441147872</v>
+        <v>308.7351441147867</v>
       </c>
       <c r="Y23" t="n">
-        <v>261.6969102362204</v>
+        <v>261.69691023622</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M24" t="n">
-        <v>89.67776433569419</v>
+        <v>86.32532454744377</v>
       </c>
       <c r="N24" t="n">
-        <v>169.2982093066377</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2710940658313</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P24" t="n">
-        <v>335.243978825025</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q24" t="n">
-        <v>335.243978825025</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="R24" t="n">
-        <v>250.5864084146652</v>
+        <v>244.4853285558699</v>
       </c>
       <c r="S24" t="n">
-        <v>250.5864084146652</v>
+        <v>244.4853285558699</v>
       </c>
       <c r="T24" t="n">
-        <v>165.9288380043053</v>
+        <v>244.4853285558699</v>
       </c>
       <c r="U24" t="n">
-        <v>81.27126759394545</v>
+        <v>159.8277581455102</v>
       </c>
       <c r="V24" t="n">
-        <v>81.27126759394545</v>
+        <v>159.8277581455102</v>
       </c>
       <c r="W24" t="n">
-        <v>81.27126759394545</v>
+        <v>75.17018773515048</v>
       </c>
       <c r="X24" t="n">
-        <v>81.27126759394545</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="C25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="D25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="E25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="F25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="G25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="H25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="I25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="J25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="K25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="L25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="M25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="N25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="O25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="P25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="R25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="S25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="T25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="U25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="V25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="W25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="X25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.704879576500501</v>
+        <v>6.704879576500489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.008801653034</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2582049790284</v>
+        <v>886.2582049790296</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0665353140645</v>
+        <v>760.0665353140657</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8276409830311</v>
+        <v>599.8276409830321</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5480016233337</v>
+        <v>407.5480016233345</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4837362745978</v>
+        <v>199.4837362745983</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0750227818297</v>
+        <v>64.07502278182993</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8165816897312</v>
+        <v>171.816581689731</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3999075957678</v>
+        <v>377.3999075957674</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7319193115834</v>
+        <v>636.7319193115829</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4187866779498</v>
+        <v>930.4187866779503</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048209</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.566021646282</v>
+        <v>1465.566021646284</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.06775290955</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616015</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.801813148968</v>
+        <v>1804.801813148969</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.258514413661</v>
+        <v>1790.258514413662</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.591528408188</v>
+        <v>1780.59152840819</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.90752504328</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.778861472331</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.461632026014</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.037078873698</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.882371050933</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.2133981731286</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09805726875996</v>
+        <v>75.09805726876</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8276299939782</v>
+        <v>193.8276299939783</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1341054696064</v>
+        <v>377.1341054696065</v>
       </c>
       <c r="N27" t="n">
         <v>583.7120474725132</v>
@@ -6327,28 +6327,28 @@
         <v>795.6957675258471</v>
       </c>
       <c r="R27" t="n">
-        <v>660.0226439582934</v>
+        <v>769.0293184320127</v>
       </c>
       <c r="S27" t="n">
-        <v>466.6184974415763</v>
+        <v>769.0293184320127</v>
       </c>
       <c r="T27" t="n">
-        <v>464.4949339377017</v>
+        <v>766.9057549281379</v>
       </c>
       <c r="U27" t="n">
-        <v>224.8710530925808</v>
+        <v>742.2742040566662</v>
       </c>
       <c r="V27" t="n">
-        <v>196.7836649698644</v>
+        <v>499.1944859603003</v>
       </c>
       <c r="W27" t="n">
-        <v>142.3774256738054</v>
+        <v>229.7959166905917</v>
       </c>
       <c r="X27" t="n">
-        <v>137.8617612641513</v>
+        <v>225.2802522809374</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.2133981731286</v>
+        <v>214.6318891899145</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09603626297935</v>
+        <v>75.57971696347215</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09603626297935</v>
+        <v>75.57971696347215</v>
       </c>
       <c r="N28" t="n">
-        <v>107.7307849001925</v>
+        <v>270.763977927442</v>
       </c>
       <c r="O28" t="n">
-        <v>107.7307849001925</v>
+        <v>270.763977927442</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2031802934601</v>
+        <v>270.763977927442</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2031802934601</v>
+        <v>270.763977927442</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7639779274405</v>
+        <v>270.763977927442</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0359901623198</v>
+        <v>248.035990162321</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0300534097535</v>
+        <v>237.0300534097546</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4504037382761</v>
+        <v>160.4504037382769</v>
       </c>
       <c r="V28" t="n">
-        <v>127.857869889249</v>
+        <v>127.8578698892497</v>
       </c>
       <c r="W28" t="n">
-        <v>49.60706138882252</v>
+        <v>49.60706138882296</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43832529354027</v>
+        <v>40.43832529354052</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297939</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2582049790291</v>
+        <v>886.2582049790296</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0665353140652</v>
+        <v>760.0665353140656</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8276409830316</v>
+        <v>599.8276409830321</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5480016233342</v>
+        <v>407.5480016233345</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4837362745982</v>
+        <v>199.4837362745984</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07502278182979</v>
+        <v>64.07502278182983</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J29" t="n">
         <v>171.8165816897311</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3999075957677</v>
+        <v>377.3999075957676</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7319193115832</v>
+        <v>636.7319193115831</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4187866779506</v>
+        <v>930.4187866779504</v>
       </c>
       <c r="N29" t="n">
         <v>1218.605806048207</v>
@@ -6479,10 +6479,10 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R29" t="n">
         <v>1804.801813148968</v>
@@ -6494,19 +6494,19 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.778861472332</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.461632026015</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.882371050934</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09603626297935</v>
+        <v>225.5083105300156</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K30" t="n">
-        <v>75.09805726875996</v>
+        <v>75.09805726875997</v>
       </c>
       <c r="L30" t="n">
         <v>193.8276299939782</v>
@@ -6564,28 +6564,28 @@
         <v>795.6957675258471</v>
       </c>
       <c r="R30" t="n">
-        <v>660.0226439582934</v>
+        <v>795.6957675258471</v>
       </c>
       <c r="S30" t="n">
-        <v>466.6184974415763</v>
+        <v>795.6957675258471</v>
       </c>
       <c r="T30" t="n">
-        <v>464.4949339377017</v>
+        <v>793.5722040219724</v>
       </c>
       <c r="U30" t="n">
-        <v>224.8710530925807</v>
+        <v>768.9406531505009</v>
       </c>
       <c r="V30" t="n">
-        <v>196.7836649698643</v>
+        <v>525.860935054135</v>
       </c>
       <c r="W30" t="n">
-        <v>142.3774256738051</v>
+        <v>256.4623657844263</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74439935400218</v>
+        <v>251.9467013747721</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09603626297935</v>
+        <v>241.2983382837492</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="N31" t="n">
-        <v>185.5432441589709</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="O31" t="n">
-        <v>185.5432441589709</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5432441589709</v>
+        <v>189.5684316562468</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7639779274411</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7639779274411</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0359901623203</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T31" t="n">
-        <v>237.030053409754</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4504037382764</v>
+        <v>160.4504037382767</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8578698892493</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882269</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354036</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C32" t="n">
-        <v>886.258204979029</v>
+        <v>886.2582049790299</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0665353140649</v>
+        <v>760.066535314066</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830314</v>
+        <v>599.8276409830324</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233338</v>
+        <v>407.548001623335</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4837362745977</v>
+        <v>199.4837362745989</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07502278182938</v>
+        <v>64.07502278183063</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8165816897313</v>
+        <v>171.8165816897312</v>
       </c>
       <c r="K32" t="n">
         <v>377.3999075957677</v>
@@ -6710,7 +6710,7 @@
         <v>930.4187866779505</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048208</v>
       </c>
       <c r="O32" t="n">
         <v>1465.566021646282</v>
@@ -6719,13 +6719,13 @@
         <v>1663.067752909548</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R32" t="n">
         <v>1804.801813148968</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.25851441366</v>
+        <v>1790.258514413661</v>
       </c>
       <c r="T32" t="n">
         <v>1780.591528408188</v>
@@ -6734,16 +6734,16 @@
         <v>1742.907525043281</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.778861472332</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.461632026015</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.882371050934</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5083105300156</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09805726875996</v>
+        <v>75.09805726875997</v>
       </c>
       <c r="L33" t="n">
         <v>193.8276299939782</v>
@@ -6801,28 +6801,28 @@
         <v>795.6957675258471</v>
       </c>
       <c r="R33" t="n">
-        <v>660.0226439582934</v>
+        <v>795.6957675258471</v>
       </c>
       <c r="S33" t="n">
-        <v>466.6184974415763</v>
+        <v>602.29162100913</v>
       </c>
       <c r="T33" t="n">
-        <v>464.4949339377015</v>
+        <v>588.3699020012025</v>
       </c>
       <c r="U33" t="n">
-        <v>439.86338306623</v>
+        <v>348.7460211560815</v>
       </c>
       <c r="V33" t="n">
-        <v>295.078577326752</v>
+        <v>320.658633033365</v>
       </c>
       <c r="W33" t="n">
-        <v>240.6723380306928</v>
+        <v>51.26006376365637</v>
       </c>
       <c r="X33" t="n">
-        <v>236.1566736210385</v>
+        <v>46.74439935400221</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.5083105300156</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="N34" t="n">
-        <v>117.2915825341743</v>
+        <v>96.3918531703213</v>
       </c>
       <c r="O34" t="n">
-        <v>117.2915825341743</v>
+        <v>270.7639779274414</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274414</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274414</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274414</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0359901623208</v>
+        <v>248.0359901623205</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0300534097544</v>
+        <v>237.0300534097541</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4504037382768</v>
+        <v>160.4504037382765</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8578698892495</v>
+        <v>127.8578698892494</v>
       </c>
       <c r="W34" t="n">
-        <v>49.60706138882287</v>
+        <v>49.60706138882276</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43832529354045</v>
+        <v>40.4383252935404</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.4345604185187</v>
+        <v>854.4345604185189</v>
       </c>
       <c r="C35" t="n">
-        <v>739.0938725528008</v>
+        <v>739.0938725528009</v>
       </c>
       <c r="D35" t="n">
-        <v>636.3121116961245</v>
+        <v>636.3121116961246</v>
       </c>
       <c r="E35" t="n">
         <v>499.483126173379</v>
       </c>
       <c r="F35" t="n">
-        <v>330.6133956219695</v>
+        <v>330.6133956219696</v>
       </c>
       <c r="G35" t="n">
         <v>145.9590390815215</v>
       </c>
       <c r="H35" t="n">
-        <v>33.96023439704132</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I35" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J35" t="n">
-        <v>188.0557537362337</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K35" t="n">
-        <v>416.5831312652733</v>
+        <v>257.9185342155185</v>
       </c>
       <c r="L35" t="n">
-        <v>698.859194604092</v>
+        <v>306.5365633241602</v>
       </c>
       <c r="M35" t="n">
-        <v>781.8320793632855</v>
+        <v>521.9350408938681</v>
       </c>
       <c r="N35" t="n">
-        <v>859.3051161263687</v>
+        <v>833.0661118871282</v>
       </c>
       <c r="O35" t="n">
-        <v>1129.209383347447</v>
+        <v>1102.970379108206</v>
       </c>
       <c r="P35" t="n">
-        <v>1349.655166233715</v>
+        <v>1323.416161994475</v>
       </c>
       <c r="Q35" t="n">
-        <v>1405.917739996418</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.398231152375</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="S35" t="n">
-        <v>1456.088395684903</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T35" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U35" t="n">
-        <v>1455.283739767324</v>
+        <v>1455.283739767325</v>
       </c>
       <c r="V35" t="n">
         <v>1369.564985004664</v>
@@ -6980,7 +6980,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y35" t="n">
-        <v>993.89822100813</v>
+        <v>993.8982210081302</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.39115668647886</v>
+        <v>244.4823130727577</v>
       </c>
       <c r="C36" t="n">
-        <v>29.39115668647886</v>
+        <v>55.07003880572145</v>
       </c>
       <c r="D36" t="n">
-        <v>29.39115668647886</v>
+        <v>55.07003880572145</v>
       </c>
       <c r="E36" t="n">
-        <v>29.39115668647886</v>
+        <v>55.07003880572145</v>
       </c>
       <c r="F36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J36" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K36" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L36" t="n">
-        <v>187.1227504174777</v>
+        <v>187.1227504174778</v>
       </c>
       <c r="M36" t="n">
-        <v>370.4292258931059</v>
+        <v>370.429225893106</v>
       </c>
       <c r="N36" t="n">
-        <v>577.0071678960126</v>
+        <v>577.0071678960127</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2385441915039</v>
+        <v>710.2385441915042</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0919678081414</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.9908879493465</v>
+        <v>788.9908879493468</v>
       </c>
       <c r="R36" t="n">
-        <v>653.3177643817928</v>
+        <v>653.317764381793</v>
       </c>
       <c r="S36" t="n">
-        <v>521.8047408113237</v>
+        <v>459.9136178650759</v>
       </c>
       <c r="T36" t="n">
-        <v>304.6888473337994</v>
+        <v>459.9136178650759</v>
       </c>
       <c r="U36" t="n">
-        <v>65.06496648867844</v>
+        <v>458.6919758018925</v>
       </c>
       <c r="V36" t="n">
-        <v>60.38748717425004</v>
+        <v>454.014496487464</v>
       </c>
       <c r="W36" t="n">
-        <v>29.39115668647886</v>
+        <v>423.0181659996928</v>
       </c>
       <c r="X36" t="n">
-        <v>29.39115668647886</v>
+        <v>423.0181659996928</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.39115668647886</v>
+        <v>423.0181659996928</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M37" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="N37" t="n">
-        <v>29.39115668647886</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="O37" t="n">
-        <v>113.4112222111547</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="P37" t="n">
-        <v>113.4112222111547</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.4112222111547</v>
+        <v>114.0795730255629</v>
       </c>
       <c r="R37" t="n">
-        <v>145.9160714681381</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T37" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U37" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V37" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="38">
@@ -7166,43 +7166,43 @@
         <v>145.9590390815217</v>
       </c>
       <c r="H38" t="n">
-        <v>33.96023439704135</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I38" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J38" t="n">
-        <v>188.0557537362336</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K38" t="n">
-        <v>188.0557537362336</v>
+        <v>247.8778353303279</v>
       </c>
       <c r="L38" t="n">
-        <v>470.3318170750522</v>
+        <v>530.1538986691465</v>
       </c>
       <c r="M38" t="n">
-        <v>786.9627360644226</v>
+        <v>846.784817658517</v>
       </c>
       <c r="N38" t="n">
-        <v>1025.243654961348</v>
+        <v>1157.915888651777</v>
       </c>
       <c r="O38" t="n">
-        <v>1061.489887952249</v>
+        <v>1194.162121642678</v>
       </c>
       <c r="P38" t="n">
-        <v>1281.935670838517</v>
+        <v>1414.607904528947</v>
       </c>
       <c r="Q38" t="n">
-        <v>1428.077343167986</v>
+        <v>1414.607904528947</v>
       </c>
       <c r="R38" t="n">
-        <v>1469.557834323943</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="S38" t="n">
-        <v>1469.557834323943</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T38" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U38" t="n">
         <v>1455.283739767325</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K39" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L39" t="n">
-        <v>187.1227504174777</v>
+        <v>187.1227504174778</v>
       </c>
       <c r="M39" t="n">
-        <v>370.4292258931059</v>
+        <v>370.429225893106</v>
       </c>
       <c r="N39" t="n">
-        <v>577.0071678960126</v>
+        <v>577.0071678960127</v>
       </c>
       <c r="O39" t="n">
-        <v>710.2385441915039</v>
+        <v>710.2385441915042</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0919678081414</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0919678081414</v>
+        <v>788.9908879493468</v>
       </c>
       <c r="R39" t="n">
-        <v>760.2069795932611</v>
+        <v>653.317764381793</v>
       </c>
       <c r="S39" t="n">
-        <v>760.2069795932611</v>
+        <v>459.9136178650759</v>
       </c>
       <c r="T39" t="n">
-        <v>543.0910861157369</v>
+        <v>459.9136178650759</v>
       </c>
       <c r="U39" t="n">
-        <v>303.4672052706159</v>
+        <v>458.6919758018925</v>
       </c>
       <c r="V39" t="n">
-        <v>298.7897259561875</v>
+        <v>454.014496487464</v>
       </c>
       <c r="W39" t="n">
-        <v>29.39115668647886</v>
+        <v>248.8991510697825</v>
       </c>
       <c r="X39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I40" t="n">
-        <v>100.0069265076326</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0069265076326</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K40" t="n">
-        <v>101.254089199342</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L40" t="n">
-        <v>101.254089199342</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M40" t="n">
-        <v>101.254089199342</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N40" t="n">
-        <v>101.254089199342</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O40" t="n">
-        <v>101.254089199342</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P40" t="n">
-        <v>101.254089199342</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.254089199342</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="R40" t="n">
-        <v>133.7589384563254</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S40" t="n">
-        <v>134.4272892707335</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T40" t="n">
         <v>146.5844222825463</v>
       </c>
       <c r="U40" t="n">
-        <v>93.41468141935667</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V40" t="n">
-        <v>84.23205637861747</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>854.4345604185188</v>
+        <v>854.4345604185189</v>
       </c>
       <c r="C41" t="n">
-        <v>739.0938725528009</v>
+        <v>739.093872552801</v>
       </c>
       <c r="D41" t="n">
         <v>636.3121116961249</v>
@@ -7400,49 +7400,49 @@
         <v>330.61339562197</v>
       </c>
       <c r="G41" t="n">
-        <v>145.9590390815216</v>
+        <v>145.9590390815217</v>
       </c>
       <c r="H41" t="n">
-        <v>33.96023439704132</v>
+        <v>33.96023439704133</v>
       </c>
       <c r="I41" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J41" t="n">
-        <v>188.0557537362337</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K41" t="n">
-        <v>326.704032698507</v>
+        <v>257.9185342155185</v>
       </c>
       <c r="L41" t="n">
-        <v>375.3220618071487</v>
+        <v>540.1945975543372</v>
       </c>
       <c r="M41" t="n">
-        <v>691.9529807965191</v>
+        <v>856.8255165437076</v>
       </c>
       <c r="N41" t="n">
-        <v>1003.084051789779</v>
+        <v>1136.01347277534</v>
       </c>
       <c r="O41" t="n">
-        <v>1039.33028478068</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="P41" t="n">
-        <v>1259.776067666949</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="Q41" t="n">
         <v>1405.917739996418</v>
       </c>
       <c r="R41" t="n">
-        <v>1447.398231152375</v>
+        <v>1447.398231152376</v>
       </c>
       <c r="S41" t="n">
-        <v>1456.088395684903</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T41" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U41" t="n">
-        <v>1455.283739767324</v>
+        <v>1455.283739767325</v>
       </c>
       <c r="V41" t="n">
         <v>1369.564985004664</v>
@@ -7454,7 +7454,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.8982210081301</v>
+        <v>993.8982210081302</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J42" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L42" t="n">
-        <v>187.1227504174777</v>
+        <v>187.1227504174778</v>
       </c>
       <c r="M42" t="n">
-        <v>370.4292258931059</v>
+        <v>370.429225893106</v>
       </c>
       <c r="N42" t="n">
-        <v>577.0071678960126</v>
+        <v>577.0071678960127</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2385441915039</v>
+        <v>710.2385441915042</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0919678081414</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="R42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="S42" t="n">
-        <v>788.9908879493465</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="T42" t="n">
-        <v>788.9908879493465</v>
+        <v>577.9760743306174</v>
       </c>
       <c r="U42" t="n">
-        <v>549.3670071042255</v>
+        <v>338.3521934854964</v>
       </c>
       <c r="V42" t="n">
-        <v>544.6895277897971</v>
+        <v>95.27247538913048</v>
       </c>
       <c r="W42" t="n">
-        <v>427.4350039967176</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X42" t="n">
-        <v>207.927009613414</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.927009613414</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5844222825462</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P43" t="n">
-        <v>146.5844222825462</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.5844222825462</v>
+        <v>137.5559420779522</v>
       </c>
       <c r="R43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T43" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U43" t="n">
-        <v>93.41468141935661</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V43" t="n">
-        <v>84.23205637861744</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.4345604185179</v>
+        <v>854.4345604185183</v>
       </c>
       <c r="C44" t="n">
-        <v>739.0938725527999</v>
+        <v>739.0938725528003</v>
       </c>
       <c r="D44" t="n">
-        <v>636.312111696124</v>
+        <v>636.3121116961245</v>
       </c>
       <c r="E44" t="n">
-        <v>499.4831261733785</v>
+        <v>499.4831261733789</v>
       </c>
       <c r="F44" t="n">
-        <v>330.6133956219689</v>
+        <v>330.6133956219694</v>
       </c>
       <c r="G44" t="n">
         <v>145.9590390815217</v>
@@ -7643,55 +7643,55 @@
         <v>33.9602343970414</v>
       </c>
       <c r="I44" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J44" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K44" t="n">
         <v>257.9185342155184</v>
       </c>
       <c r="L44" t="n">
-        <v>540.194597554337</v>
+        <v>342.7556297014383</v>
       </c>
       <c r="M44" t="n">
-        <v>691.9529807965196</v>
+        <v>659.3865486908087</v>
       </c>
       <c r="N44" t="n">
-        <v>769.4260175596028</v>
+        <v>970.5176196840687</v>
       </c>
       <c r="O44" t="n">
-        <v>1039.330284780681</v>
+        <v>1240.421886905147</v>
       </c>
       <c r="P44" t="n">
-        <v>1259.776067666949</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="Q44" t="n">
-        <v>1405.917739996418</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="R44" t="n">
-        <v>1447.398231152375</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="S44" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T44" t="n">
-        <v>1469.557834323943</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="U44" t="n">
-        <v>1455.283739767324</v>
+        <v>1455.283739767325</v>
       </c>
       <c r="V44" t="n">
-        <v>1369.564985004663</v>
+        <v>1369.564985004664</v>
       </c>
       <c r="W44" t="n">
-        <v>1266.657664366634</v>
+        <v>1266.657664366635</v>
       </c>
       <c r="X44" t="n">
         <v>1141.643020022606</v>
       </c>
       <c r="Y44" t="n">
-        <v>993.8982210081293</v>
+        <v>993.8982210081298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K45" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L45" t="n">
-        <v>187.1227504174777</v>
+        <v>187.1227504174778</v>
       </c>
       <c r="M45" t="n">
-        <v>370.4292258931059</v>
+        <v>370.429225893106</v>
       </c>
       <c r="N45" t="n">
-        <v>577.0071678960126</v>
+        <v>577.0071678960127</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2385441915039</v>
+        <v>710.2385441915042</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0919678081414</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0919678081414</v>
+        <v>795.0919678081416</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0919678081414</v>
+        <v>659.418844240588</v>
       </c>
       <c r="S45" t="n">
-        <v>795.0919678081414</v>
+        <v>543.0910861157371</v>
       </c>
       <c r="T45" t="n">
-        <v>577.9760743306172</v>
+        <v>543.0910861157371</v>
       </c>
       <c r="U45" t="n">
-        <v>338.3521934854962</v>
+        <v>541.8694440525535</v>
       </c>
       <c r="V45" t="n">
-        <v>279.8954815575538</v>
+        <v>298.7897259561876</v>
       </c>
       <c r="W45" t="n">
-        <v>248.8991510697825</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M46" t="n">
-        <v>101.2540891993423</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N46" t="n">
-        <v>101.2540891993423</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O46" t="n">
-        <v>101.2540891993423</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P46" t="n">
-        <v>101.2540891993423</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.2540891993423</v>
+        <v>137.5559420779521</v>
       </c>
       <c r="R46" t="n">
-        <v>133.7589384563257</v>
+        <v>137.5559420779521</v>
       </c>
       <c r="S46" t="n">
-        <v>134.4272892707337</v>
+        <v>137.5559420779521</v>
       </c>
       <c r="T46" t="n">
         <v>146.5844222825464</v>
       </c>
       <c r="U46" t="n">
-        <v>93.41468141935678</v>
+        <v>93.4146814193568</v>
       </c>
       <c r="V46" t="n">
-        <v>84.23205637861753</v>
+        <v>84.23205637861754</v>
       </c>
       <c r="W46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.39115668647886</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
   </sheetData>
@@ -8775,10 +8775,10 @@
         <v>120.3756824180372</v>
       </c>
       <c r="M12" t="n">
-        <v>200.429819980268</v>
+        <v>197.0435171638536</v>
       </c>
       <c r="N12" t="n">
-        <v>182.3739625827404</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O12" t="n">
         <v>204.4566298243532</v>
@@ -9012,13 +9012,13 @@
         <v>120.3756824180372</v>
       </c>
       <c r="M15" t="n">
-        <v>200.429819980268</v>
+        <v>197.0435171638536</v>
       </c>
       <c r="N15" t="n">
         <v>185.7602653991548</v>
       </c>
       <c r="O15" t="n">
-        <v>201.0703270079388</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P15" t="n">
         <v>204.464339879241</v>
@@ -9249,10 +9249,10 @@
         <v>120.3756824180372</v>
       </c>
       <c r="M18" t="n">
-        <v>200.429819980268</v>
+        <v>197.0435171638536</v>
       </c>
       <c r="N18" t="n">
-        <v>182.3739625827404</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O18" t="n">
         <v>204.4566298243532</v>
@@ -9644,7 +9644,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>291.2847697033557</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N23" t="n">
         <v>283.4008070189657</v>
@@ -9723,16 +9723,16 @@
         <v>120.3756824180372</v>
       </c>
       <c r="M24" t="n">
-        <v>200.4298199802681</v>
+        <v>197.0435171638536</v>
       </c>
       <c r="N24" t="n">
-        <v>182.3739625827406</v>
+        <v>185.7602653991548</v>
       </c>
       <c r="O24" t="n">
-        <v>204.4566298243533</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P24" t="n">
-        <v>204.4643398792412</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.1871778065185</v>
+        <v>85.95374321123094</v>
       </c>
       <c r="C11" t="n">
         <v>145.8829949208325</v>
@@ -23264,19 +23264,19 @@
         <v>133.449657181881</v>
       </c>
       <c r="E11" t="n">
-        <v>167.1564096012898</v>
+        <v>167.1564096012899</v>
       </c>
       <c r="F11" t="n">
-        <v>198.8767471796671</v>
+        <v>198.8767471796672</v>
       </c>
       <c r="G11" t="n">
         <v>214.5035269088154</v>
       </c>
       <c r="H11" t="n">
-        <v>142.5745305714072</v>
+        <v>58.76353586515117</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.21910086722868</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>32.74628644254958</v>
+        <v>45.76062017060903</v>
       </c>
       <c r="W11" t="n">
-        <v>49.76296665916445</v>
+        <v>133.5739613654206</v>
       </c>
       <c r="X11" t="n">
-        <v>155.4602118343598</v>
+        <v>155.4602118343599</v>
       </c>
       <c r="Y11" t="n">
         <v>177.9630649581036</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5227626820733432</v>
+        <v>0.5227626820734</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.177209922732885</v>
+        <v>2.177209922732942</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.1871778065182</v>
+        <v>85.95374321123094</v>
       </c>
       <c r="C14" t="n">
-        <v>145.8829949208324</v>
+        <v>145.8829949208325</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4496571818809</v>
+        <v>133.449657181881</v>
       </c>
       <c r="E14" t="n">
-        <v>167.1564096012897</v>
+        <v>167.1564096012899</v>
       </c>
       <c r="F14" t="n">
-        <v>198.8767471796671</v>
+        <v>198.8767471796672</v>
       </c>
       <c r="G14" t="n">
-        <v>214.5035269088153</v>
+        <v>179.9259667978474</v>
       </c>
       <c r="H14" t="n">
-        <v>142.5745305714071</v>
+        <v>142.5745305714073</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.74628644254949</v>
+        <v>116.5572811488057</v>
       </c>
       <c r="W14" t="n">
-        <v>49.76296665916436</v>
+        <v>49.7629666591645</v>
       </c>
       <c r="X14" t="n">
-        <v>155.4602118343597</v>
+        <v>155.4602118343599</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.9630649581035</v>
+        <v>177.9630649581036</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5227626820732579</v>
+        <v>0.5227626820734</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.1772099227328</v>
+        <v>2.177209922732942</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>272190.369236591</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105116.1707346579</v>
+        <v>105116.1707346581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161283.0021054359</v>
+        <v>161283.0021054358</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>105116.1707346579</v>
+        <v>105116.1707346581</v>
       </c>
       <c r="M3" t="n">
-        <v>18540.64777616415</v>
+        <v>18540.64777616409</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65157.75460447249</v>
+        <v>65157.75460447225</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>493696.1728711353</v>
       </c>
       <c r="E4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600599</v>
       </c>
       <c r="F4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600599</v>
       </c>
       <c r="G4" t="n">
         <v>458781.7794468557</v>
@@ -26439,16 +26439,16 @@
         <v>458781.7794468557</v>
       </c>
       <c r="J4" t="n">
-        <v>459727.7067886269</v>
+        <v>459727.7067886268</v>
       </c>
       <c r="K4" t="n">
-        <v>459727.7067886269</v>
+        <v>459727.7067886267</v>
       </c>
       <c r="L4" t="n">
         <v>459727.7067886268</v>
       </c>
       <c r="M4" t="n">
-        <v>459351.4258455442</v>
+        <v>459351.4258455441</v>
       </c>
       <c r="N4" t="n">
         <v>459351.4258455442</v>
@@ -26457,7 +26457,7 @@
         <v>459351.4258455442</v>
       </c>
       <c r="P4" t="n">
-        <v>459351.4258455441</v>
+        <v>459351.4258455442</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24544.28478191325</v>
+        <v>24544.28478191324</v>
       </c>
       <c r="F5" t="n">
-        <v>24544.28478191325</v>
+        <v>24544.28478191324</v>
       </c>
       <c r="G5" t="n">
         <v>35590.5489787782</v>
@@ -26488,7 +26488,7 @@
         <v>35590.5489787782</v>
       </c>
       <c r="I5" t="n">
-        <v>35590.54897877821</v>
+        <v>35590.5489787782</v>
       </c>
       <c r="J5" t="n">
         <v>47597.82369096753</v>
@@ -26497,19 +26497,19 @@
         <v>47597.82369096752</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.82369096751</v>
+        <v>47597.82369096752</v>
       </c>
       <c r="M5" t="n">
+        <v>44450.48236019508</v>
+      </c>
+      <c r="N5" t="n">
+        <v>44450.48236019508</v>
+      </c>
+      <c r="O5" t="n">
+        <v>44450.48236019508</v>
+      </c>
+      <c r="P5" t="n">
         <v>44450.48236019507</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44450.48236019506</v>
-      </c>
-      <c r="O5" t="n">
-        <v>44450.48236019507</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44450.48236019506</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-527323.7728711353</v>
+        <v>-527328.2392553404</v>
       </c>
       <c r="C6" t="n">
-        <v>-527323.7728711353</v>
+        <v>-527328.2392553404</v>
       </c>
       <c r="D6" t="n">
-        <v>-527323.7728711353</v>
+        <v>-527328.2392553404</v>
       </c>
       <c r="E6" t="n">
-        <v>-684987.3800785643</v>
+        <v>-685296.7012281594</v>
       </c>
       <c r="F6" t="n">
-        <v>-412797.0108419734</v>
+        <v>-413106.3319915683</v>
       </c>
       <c r="G6" t="n">
-        <v>-599488.4991602917</v>
+        <v>-599488.4991602919</v>
       </c>
       <c r="H6" t="n">
         <v>-494372.3284256338</v>
@@ -26543,25 +26543,25 @@
         <v>-494372.3284256338</v>
       </c>
       <c r="J6" t="n">
-        <v>-668608.5325850303</v>
+        <v>-668608.5325850302</v>
       </c>
       <c r="K6" t="n">
-        <v>-507325.5304795944</v>
+        <v>-507325.5304795943</v>
       </c>
       <c r="L6" t="n">
-        <v>-612441.7012142522</v>
+        <v>-612441.7012142525</v>
       </c>
       <c r="M6" t="n">
-        <v>-522342.5559819035</v>
+        <v>-522342.5559819033</v>
       </c>
       <c r="N6" t="n">
         <v>-503801.9082057393</v>
       </c>
       <c r="O6" t="n">
-        <v>-568959.6628102117</v>
+        <v>-568959.6628102115</v>
       </c>
       <c r="P6" t="n">
-        <v>-503801.9082057392</v>
+        <v>-503801.9082057393</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="F2" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="G2" t="n">
         <v>335.7177158786689</v>
@@ -26707,13 +26707,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="K2" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="M2" t="n">
         <v>236.0182163941181</v>
@@ -26808,28 +26808,28 @@
         <v>83.81099470625611</v>
       </c>
       <c r="I4" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.2004532872423</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="M4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="N4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="O4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
       <c r="P4" t="n">
-        <v>367.3894585809858</v>
+        <v>367.3894585809859</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>204.3225024603463</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3952134183224</v>
+        <v>131.3952134183226</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.44719325559058</v>
+        <v>81.44719325559032</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183224</v>
+        <v>131.3952134183226</v>
       </c>
       <c r="M2" t="n">
-        <v>23.17580972020519</v>
+        <v>23.17580972020511</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559061</v>
+        <v>81.44719325559032</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>367.3894585809857</v>
+        <v>367.3894585809862</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>204.3225024603463</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183224</v>
+        <v>131.3952134183226</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559058</v>
+        <v>81.44719325559032</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28117,25 +28117,25 @@
         <v>5.182481516300328</v>
       </c>
       <c r="L11" t="n">
-        <v>34.70187439449685</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.555402016273121</v>
+        <v>0.2586170378897208</v>
       </c>
       <c r="O11" t="n">
-        <v>33.60856325102914</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34570842819043</v>
+        <v>97.15670313444653</v>
       </c>
       <c r="Q11" t="n">
         <v>88.40036555627081</v>
       </c>
       <c r="R11" t="n">
-        <v>204.3225024603463</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S11" t="n">
         <v>204.3225024603463</v>
@@ -28214,22 +28214,22 @@
         <v>6.040069060206882</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562201</v>
       </c>
       <c r="S12" t="n">
-        <v>191.47010505155</v>
+        <v>145.7443719746093</v>
       </c>
       <c r="T12" t="n">
-        <v>131.1337398364928</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="U12" t="n">
-        <v>153.4166473304136</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="V12" t="n">
-        <v>177.4514788413446</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3225024603463</v>
+        <v>182.8935888707555</v>
       </c>
       <c r="X12" t="n">
         <v>204.3225024603463</v>
@@ -28275,19 +28275,19 @@
         <v>66.39711477387068</v>
       </c>
       <c r="L13" t="n">
-        <v>115.1529611747455</v>
+        <v>31.34196646848939</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36299235552877</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N13" t="n">
         <v>99.49758222464391</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70894732328662</v>
+        <v>85.52162711696306</v>
       </c>
       <c r="P13" t="n">
-        <v>106.6324648582279</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q13" t="n">
         <v>204.3225024603463</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="C14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="D14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="E14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="F14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="G14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="H14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="I14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75094664689104</v>
+        <v>159.5619413531471</v>
       </c>
       <c r="K14" t="n">
-        <v>31.84968302830916</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>47.19863814979026</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>13.34570842819043</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R14" t="n">
-        <v>204.3225024603464</v>
+        <v>194.3773474158893</v>
       </c>
       <c r="S14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="U14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="W14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="X14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S15" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452938</v>
       </c>
       <c r="T15" t="n">
-        <v>131.1337398364928</v>
+        <v>190.6925011052218</v>
       </c>
       <c r="U15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="V15" t="n">
-        <v>204.3225024603464</v>
+        <v>156.8379262091461</v>
       </c>
       <c r="W15" t="n">
-        <v>182.8935888707555</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="X15" t="n">
-        <v>154.0146063612094</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
     </row>
     <row r="16">
@@ -28500,58 +28500,58 @@
         <v>168.6953277291724</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7759671126257</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="I16" t="n">
         <v>164.6891559687103</v>
       </c>
       <c r="J16" t="n">
-        <v>119.854490685719</v>
+        <v>203.6654853919751</v>
       </c>
       <c r="K16" t="n">
-        <v>150.2081094801268</v>
+        <v>66.39711477387068</v>
       </c>
       <c r="L16" t="n">
         <v>31.34196646848939</v>
       </c>
       <c r="M16" t="n">
-        <v>108.1739870617849</v>
+        <v>24.36299235552877</v>
       </c>
       <c r="N16" t="n">
-        <v>58.2499176533216</v>
+        <v>99.49758222464391</v>
       </c>
       <c r="O16" t="n">
-        <v>120.5199420295428</v>
+        <v>40.72574211050074</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81978506455186</v>
+        <v>141.630779770808</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7608574128319</v>
       </c>
       <c r="R16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="T16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="U16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="V16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="W16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603463</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I17" t="n">
-        <v>240.541603327575</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J17" t="n">
-        <v>75.75094664689104</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K17" t="n">
-        <v>5.182481516300335</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>13.34570842819043</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.40036555627083</v>
+        <v>157.6320450308999</v>
       </c>
       <c r="R17" t="n">
         <v>194.1187303779996</v>
@@ -28615,13 +28615,13 @@
         <v>227.240272421867</v>
       </c>
       <c r="T17" t="n">
-        <v>306.2237175255867</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495700051708</v>
       </c>
       <c r="V17" t="n">
-        <v>321.1384006470417</v>
+        <v>335.7177158786689</v>
       </c>
       <c r="W17" t="n">
         <v>335.7177158786689</v>
@@ -28664,7 +28664,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J18" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R18" t="n">
         <v>50.50539762562201</v>
       </c>
       <c r="S18" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452938</v>
       </c>
       <c r="T18" t="n">
-        <v>147.1640794656855</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U18" t="n">
-        <v>153.4166473304136</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V18" t="n">
         <v>156.8379262091461</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>149.5635619967553</v>
       </c>
     </row>
     <row r="19">
@@ -28758,10 +28758,10 @@
         <v>15.68658751838779</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7608574128319</v>
@@ -28819,13 +28819,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I20" t="n">
-        <v>240.541603327575</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J20" t="n">
-        <v>75.75094664689104</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K20" t="n">
-        <v>5.182481516300335</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,22 +28834,22 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2586170378897208</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>47.19863814979024</v>
       </c>
       <c r="P20" t="n">
         <v>13.34570842819043</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R20" t="n">
         <v>194.1187303779996</v>
       </c>
       <c r="S20" t="n">
-        <v>311.0512671281231</v>
+        <v>264.1112460162226</v>
       </c>
       <c r="T20" t="n">
         <v>222.4127228193306</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>75.36132037032243</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J21" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.3163923318781</v>
       </c>
       <c r="S21" t="n">
-        <v>107.6591103452938</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T21" t="n">
         <v>147.1640794656855</v>
       </c>
       <c r="U21" t="n">
-        <v>153.4166473304136</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>182.8935888707555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>133.5019197332145</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>139.5732914277695</v>
       </c>
     </row>
     <row r="22">
@@ -28995,10 +28995,10 @@
         <v>15.68658751838779</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7608574128319</v>
@@ -29056,13 +29056,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I23" t="n">
-        <v>240.541603327575</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J23" t="n">
-        <v>75.75094664689104</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K23" t="n">
-        <v>36.49805309438298</v>
+        <v>5.182481516300328</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.555402016273263</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>47.1986381497904</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34570842819043</v>
+        <v>13.60432546608017</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.40036555627083</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1187303779996</v>
+        <v>277.9297250842557</v>
       </c>
       <c r="S23" t="n">
         <v>227.240272421867</v>
@@ -29138,7 +29138,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.040069060206889</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.50539762562187</v>
+        <v>50.50539762562201</v>
       </c>
       <c r="S24" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T24" t="n">
-        <v>131.1337398364927</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U24" t="n">
-        <v>153.4166473304135</v>
+        <v>153.4166473304136</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>182.8935888707555</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>149.5322593624071</v>
       </c>
       <c r="Y24" t="n">
-        <v>149.5635619967551</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29232,10 +29232,10 @@
         <v>15.68658751838779</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7608574128319</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="M26" t="n">
-        <v>212.842406673912</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739151</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.31196323331821</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J27" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>107.916607728982</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8424066739131</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8424066739131</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="28">
@@ -29460,46 +29460,46 @@
         <v>66.39711477387068</v>
       </c>
       <c r="L28" t="n">
-        <v>31.34196646848939</v>
+        <v>71.22447222656288</v>
       </c>
       <c r="M28" t="n">
         <v>24.36299235552877</v>
       </c>
       <c r="N28" t="n">
-        <v>88.04491947516873</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8424066739131</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7608574128319</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8424066739131</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8424066739131</v>
+        <v>212.8424066739129</v>
       </c>
     </row>
     <row r="29">
@@ -29545,7 +29545,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8424066739122</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O29" t="n">
         <v>212.842406673913</v>
@@ -29557,7 +29557,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="R29" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739131</v>
       </c>
       <c r="S29" t="n">
         <v>212.842406673913</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.1183669214695</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J30" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.842406673913</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.842406673913</v>
-      </c>
-      <c r="X30" t="n">
-        <v>122.6362183828657</v>
       </c>
       <c r="Y30" t="n">
         <v>212.842406673913</v>
@@ -29703,16 +29703,16 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N31" t="n">
-        <v>166.6433631709045</v>
+        <v>15.68658751838779</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81978506455186</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.842406673913</v>
+        <v>208.776560717069</v>
       </c>
       <c r="R31" t="n">
         <v>203.1850353264581</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J33" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8424066739129</v>
+        <v>201.1622327249007</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8424066739129</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>97.31196323331906</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8424066739129</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="34">
@@ -29940,13 +29940,13 @@
         <v>24.36299235552877</v>
       </c>
       <c r="N34" t="n">
-        <v>97.70229082262514</v>
+        <v>76.59145308135945</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70894732328663</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8424066739129</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7608574128319</v>
@@ -29955,25 +29955,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="35">
@@ -30007,19 +30007,19 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0182163941181</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K35" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>133.7632250611256</v>
+      </c>
+      <c r="N35" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>236.0182163941181</v>
@@ -30028,16 +30028,16 @@
         <v>236.0182163941181</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.2312481448589</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R35" t="n">
-        <v>236.0182163941181</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S35" t="n">
-        <v>236.0182163941181</v>
+        <v>227.240272421867</v>
       </c>
       <c r="T35" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U35" t="n">
         <v>236.0182163941181</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>133.4013458218782</v>
       </c>
       <c r="G36" t="n">
         <v>148.7381070793004</v>
@@ -30086,7 +30086,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J36" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.27221171678548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V36" t="n">
         <v>236.0182163941181</v>
@@ -30174,16 +30174,16 @@
         <v>31.34196646848939</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36299235552877</v>
+        <v>109.9068472434924</v>
       </c>
       <c r="N37" t="n">
         <v>15.68658751838779</v>
       </c>
       <c r="O37" t="n">
-        <v>121.5777003785147</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7608574128319</v>
@@ -30192,7 +30192,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="S37" t="n">
-        <v>236.0182163941181</v>
+        <v>235.3431145613827</v>
       </c>
       <c r="T37" t="n">
         <v>223.7382840589537</v>
@@ -30247,7 +30247,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="K38" t="n">
-        <v>5.182481516300335</v>
+        <v>65.60882656083996</v>
       </c>
       <c r="L38" t="n">
         <v>236.0182163941181</v>
@@ -30256,7 +30256,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="N38" t="n">
-        <v>162.4322041755978</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.0182163941181</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R38" t="n">
         <v>236.0182163941181</v>
@@ -30274,7 +30274,7 @@
         <v>227.240272421867</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U38" t="n">
         <v>236.0182163941181</v>
@@ -30323,7 +30323,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J39" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.040069060206889</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>99.78025399914662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V39" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>63.64039161350689</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,13 +30399,13 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I40" t="n">
-        <v>236.0182163941181</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J40" t="n">
         <v>119.854490685719</v>
       </c>
       <c r="K40" t="n">
-        <v>67.65687506852662</v>
+        <v>66.39711477387068</v>
       </c>
       <c r="L40" t="n">
         <v>31.34196646848939</v>
@@ -30417,22 +30417,22 @@
         <v>15.68658751838779</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81978506455186</v>
+        <v>176.1968210201755</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7608574128319</v>
       </c>
       <c r="R40" t="n">
-        <v>236.0182163941181</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S40" t="n">
-        <v>236.0182163941181</v>
+        <v>235.3431145613827</v>
       </c>
       <c r="T40" t="n">
-        <v>236.0182163941181</v>
+        <v>223.7382840589537</v>
       </c>
       <c r="U40" t="n">
         <v>236.0182163941181</v>
@@ -30481,28 +30481,28 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J41" t="n">
+        <v>75.75094664689102</v>
+      </c>
+      <c r="K41" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="K41" t="n">
-        <v>145.2312481448593</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="M41" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="N41" t="n">
+        <v>203.7524439076257</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>236.0182163941181</v>
+        <v>13.34570842819043</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.0182163941181</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R41" t="n">
         <v>236.0182163941181</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J42" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R42" t="n">
         <v>134.3163923318781</v>
@@ -30590,19 +30590,19 @@
         <v>191.47010505155</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>150.6226050218629</v>
+        <v>201.4820780613865</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30654,16 +30654,16 @@
         <v>15.68658751838779</v>
       </c>
       <c r="O43" t="n">
-        <v>155.0859832789102</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7608574128319</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1850353264581</v>
+        <v>212.3047123007956</v>
       </c>
       <c r="S43" t="n">
         <v>235.3431145613827</v>
@@ -30718,19 +30718,19 @@
         <v>236.018216394118</v>
       </c>
       <c r="J44" t="n">
-        <v>75.75094664689104</v>
+        <v>75.75094664689102</v>
       </c>
       <c r="K44" t="n">
         <v>236.018216394118</v>
       </c>
       <c r="L44" t="n">
+        <v>36.58491553260424</v>
+      </c>
+      <c r="M44" t="n">
         <v>236.018216394118</v>
       </c>
-      <c r="M44" t="n">
-        <v>69.48030149796875</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.018216394118</v>
       </c>
       <c r="O44" t="n">
         <v>236.018216394118</v>
@@ -30739,16 +30739,16 @@
         <v>236.018216394118</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.018216394118</v>
+        <v>88.40036555627081</v>
       </c>
       <c r="R44" t="n">
-        <v>236.018216394118</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S44" t="n">
         <v>236.018216394118</v>
       </c>
       <c r="T44" t="n">
-        <v>236.018216394118</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U44" t="n">
         <v>236.018216394118</v>
@@ -30797,7 +30797,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86130901229092</v>
+        <v>51.86130901229091</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.040069060206889</v>
+        <v>6.040069060206882</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.47010505155</v>
+        <v>76.30562450794757</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.018216394118</v>
       </c>
       <c r="V45" t="n">
-        <v>182.7767761067392</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.018216394118</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30885,28 +30885,28 @@
         <v>31.34196646848939</v>
       </c>
       <c r="M46" t="n">
-        <v>96.9518130755929</v>
+        <v>24.36299235552877</v>
       </c>
       <c r="N46" t="n">
         <v>15.68658751838779</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70894732328663</v>
+        <v>36.70894732328662</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81978506455186</v>
+        <v>57.81978506455185</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7608574128319</v>
+        <v>236.018216394118</v>
       </c>
       <c r="R46" t="n">
-        <v>236.018216394118</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S46" t="n">
-        <v>236.018216394118</v>
+        <v>235.3431145613827</v>
       </c>
       <c r="T46" t="n">
-        <v>236.018216394118</v>
+        <v>232.8579610332914</v>
       </c>
       <c r="U46" t="n">
         <v>236.018216394118</v>
@@ -31990,19 +31990,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M14" t="n">
         <v>73.54862954017335</v>
@@ -32011,25 +32011,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R14" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S14" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H15" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K15" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M15" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N15" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P15" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R15" t="n">
         <v>13.91456046642202</v>
@@ -32105,7 +32105,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U15" t="n">
         <v>0.0147441655125975</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H16" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J16" t="n">
         <v>13.28363909321956</v>
@@ -32166,16 +32166,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P16" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R16" t="n">
         <v>8.448100675718647</v>
@@ -32184,7 +32184,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024840356941204</v>
@@ -32227,19 +32227,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I17" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M17" t="n">
         <v>73.54862954017335</v>
@@ -32248,25 +32248,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R17" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S17" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H18" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K18" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M18" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N18" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P18" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R18" t="n">
         <v>13.91456046642202</v>
@@ -32342,7 +32342,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U18" t="n">
         <v>0.0147441655125975</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H19" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J19" t="n">
         <v>13.28363909321956</v>
@@ -32403,16 +32403,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P19" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R19" t="n">
         <v>8.448100675718647</v>
@@ -32421,7 +32421,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024840356941204</v>
@@ -32464,19 +32464,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I20" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M20" t="n">
         <v>73.54862954017335</v>
@@ -32485,25 +32485,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R20" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S20" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H21" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K21" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M21" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N21" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P21" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R21" t="n">
         <v>13.91456046642202</v>
@@ -32579,7 +32579,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U21" t="n">
         <v>0.0147441655125975</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H22" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J22" t="n">
         <v>13.28363909321956</v>
@@ -32640,16 +32640,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P22" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R22" t="n">
         <v>8.448100675718647</v>
@@ -32658,7 +32658,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024840356941204</v>
@@ -32701,19 +32701,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I23" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M23" t="n">
         <v>73.54862954017335</v>
@@ -32722,25 +32722,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R23" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S23" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H24" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K24" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M24" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N24" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P24" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R24" t="n">
         <v>13.91456046642202</v>
@@ -32816,7 +32816,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U24" t="n">
         <v>0.0147441655125975</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H25" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J25" t="n">
         <v>13.28363909321956</v>
@@ -32877,16 +32877,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P25" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R25" t="n">
         <v>8.448100675718647</v>
@@ -32895,7 +32895,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024840356941204</v>
@@ -32938,19 +32938,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I26" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M26" t="n">
         <v>73.54862954017335</v>
@@ -32959,25 +32959,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R26" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S26" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H27" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K27" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M27" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N27" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P27" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R27" t="n">
         <v>13.91456046642202</v>
@@ -33053,7 +33053,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U27" t="n">
         <v>0.0147441655125975</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H28" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J28" t="n">
         <v>13.28363909321956</v>
@@ -33114,16 +33114,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P28" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R28" t="n">
         <v>8.448100675718647</v>
@@ -33132,7 +33132,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024840356941204</v>
@@ -33175,19 +33175,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I29" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M29" t="n">
         <v>73.54862954017335</v>
@@ -33196,25 +33196,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R29" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S29" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H30" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K30" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M30" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N30" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P30" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R30" t="n">
         <v>13.91456046642202</v>
@@ -33290,7 +33290,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U30" t="n">
         <v>0.0147441655125975</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H31" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J31" t="n">
         <v>13.28363909321956</v>
@@ -33351,16 +33351,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P31" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R31" t="n">
         <v>8.448100675718647</v>
@@ -33369,7 +33369,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024840356941204</v>
@@ -33412,19 +33412,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I32" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M32" t="n">
         <v>73.54862954017335</v>
@@ -33433,25 +33433,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R32" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S32" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,37 +33488,37 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H33" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K33" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M33" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N33" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P33" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R33" t="n">
         <v>13.91456046642202</v>
@@ -33527,7 +33527,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U33" t="n">
         <v>0.0147441655125975</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H34" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J34" t="n">
         <v>13.28363909321956</v>
@@ -33588,16 +33588,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P34" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R34" t="n">
         <v>8.448100675718647</v>
@@ -33606,7 +33606,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024840356941204</v>
@@ -33649,19 +33649,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I35" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M35" t="n">
         <v>73.54862954017335</v>
@@ -33670,25 +33670,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R35" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S35" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,37 +33725,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H36" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K36" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M36" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N36" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P36" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R36" t="n">
         <v>13.91456046642202</v>
@@ -33764,7 +33764,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U36" t="n">
         <v>0.0147441655125975</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H37" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J37" t="n">
         <v>13.28363909321956</v>
@@ -33825,16 +33825,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P37" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R37" t="n">
         <v>8.448100675718647</v>
@@ -33843,7 +33843,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024840356941204</v>
@@ -33886,19 +33886,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I38" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M38" t="n">
         <v>73.54862954017335</v>
@@ -33907,25 +33907,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R38" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S38" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33962,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H39" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K39" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M39" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N39" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P39" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R39" t="n">
         <v>13.91456046642202</v>
@@ -34001,7 +34001,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U39" t="n">
         <v>0.0147441655125975</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H40" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J40" t="n">
         <v>13.28363909321956</v>
@@ -34062,16 +34062,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P40" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R40" t="n">
         <v>8.448100675718647</v>
@@ -34080,7 +34080,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024840356941204</v>
@@ -34123,19 +34123,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I41" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M41" t="n">
         <v>73.54862954017335</v>
@@ -34144,25 +34144,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R41" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S41" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H42" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K42" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M42" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N42" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P42" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R42" t="n">
         <v>13.91456046642202</v>
@@ -34238,7 +34238,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U42" t="n">
         <v>0.0147441655125975</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H43" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J43" t="n">
         <v>13.28363909321956</v>
@@ -34299,16 +34299,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P43" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R43" t="n">
         <v>8.448100675718647</v>
@@ -34317,7 +34317,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024840356941204</v>
@@ -34360,19 +34360,19 @@
         <v>0.4188627254500056</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289677887014871</v>
+        <v>4.289677887014872</v>
       </c>
       <c r="I44" t="n">
-        <v>16.14820522291135</v>
+        <v>16.14820522291136</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55045024416244</v>
+        <v>35.55045024416245</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28090941246119</v>
+        <v>53.2809094124612</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09967954645181</v>
+        <v>66.09967954645182</v>
       </c>
       <c r="M44" t="n">
         <v>73.54862954017335</v>
@@ -34381,25 +34381,25 @@
         <v>74.73872325885819</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57365703266468</v>
+        <v>70.5736570326647</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23298349811766</v>
+        <v>60.23298349811767</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23246214293932</v>
+        <v>45.23246214293933</v>
       </c>
       <c r="R44" t="n">
         <v>26.31138567754894</v>
       </c>
       <c r="S44" t="n">
-        <v>9.544834356192011</v>
+        <v>9.544834356192013</v>
       </c>
       <c r="T44" t="n">
-        <v>1.8335715806574</v>
+        <v>1.833571580657401</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03350901803600044</v>
+        <v>0.03350901803600045</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241113157914819</v>
+        <v>0.224111315791482</v>
       </c>
       <c r="H45" t="n">
         <v>2.164443497249313</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716113284926024</v>
+        <v>7.716113284926025</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17360462045751</v>
+        <v>21.17360462045752</v>
       </c>
       <c r="K45" t="n">
-        <v>36.1890627784868</v>
+        <v>36.18906277848681</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66066091340927</v>
+        <v>48.66066091340928</v>
       </c>
       <c r="M45" t="n">
-        <v>56.78469611085048</v>
+        <v>56.78469611085049</v>
       </c>
       <c r="N45" t="n">
-        <v>58.28761804876792</v>
+        <v>58.28761804876794</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32178310412509</v>
+        <v>53.3217831041251</v>
       </c>
       <c r="P45" t="n">
         <v>42.79543187249799</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.60761287190917</v>
+        <v>28.60761287190918</v>
       </c>
       <c r="R45" t="n">
         <v>13.91456046642202</v>
@@ -34475,7 +34475,7 @@
         <v>4.162769396390024</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9033258737384728</v>
+        <v>0.9033258737384731</v>
       </c>
       <c r="U45" t="n">
         <v>0.0147441655125975</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1878873987725538</v>
+        <v>0.1878873987725539</v>
       </c>
       <c r="H46" t="n">
         <v>1.670489781814162</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650286501269167</v>
+        <v>5.650286501269168</v>
       </c>
       <c r="J46" t="n">
         <v>13.28363909321956</v>
@@ -34536,16 +34536,16 @@
         <v>29.4522037912286</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75189621398546</v>
+        <v>28.75189621398547</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55702978286971</v>
+        <v>26.55702978286972</v>
       </c>
       <c r="P46" t="n">
         <v>22.7241268479096</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73300754630903</v>
+        <v>15.73300754630904</v>
       </c>
       <c r="R46" t="n">
         <v>8.448100675718647</v>
@@ -34554,7 +34554,7 @@
         <v>3.274364940427142</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8027916129372753</v>
+        <v>0.8027916129372754</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024840356941204</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>83.81099470625611</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M11" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="N11" t="n">
+        <v>78.51420972787271</v>
+      </c>
+      <c r="O11" t="n">
+        <v>36.61235655646587</v>
+      </c>
+      <c r="P11" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="O11" t="n">
-        <v>70.22091980749501</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.20377208234672</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>80.4246918898417</v>
+      </c>
+      <c r="N12" t="n">
         <v>83.81099470625611</v>
-      </c>
-      <c r="N12" t="n">
-        <v>80.4246918898417</v>
       </c>
       <c r="O12" t="n">
         <v>83.81099470625611</v>
@@ -35571,25 +35571,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>83.81099470625611</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>48.81267979367644</v>
       </c>
       <c r="P13" t="n">
-        <v>48.81267979367604</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.56164504751439</v>
+        <v>77.56164504751433</v>
       </c>
       <c r="R13" t="n">
-        <v>1.137467133888206</v>
+        <v>1.137467133888149</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="K14" t="n">
-        <v>26.66720151200883</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.10912031175924</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M14" t="n">
         <v>83.81099470625611</v>
@@ -35659,7 +35659,7 @@
         <v>78.25559268998299</v>
       </c>
       <c r="O14" t="n">
-        <v>83.81099470625611</v>
+        <v>36.61235655646587</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2037720823468</v>
+        <v>0.2586170378897419</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>83.81099470625611</v>
+        <v>80.4246918898417</v>
       </c>
       <c r="N15" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="O15" t="n">
-        <v>80.42469188984172</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P15" t="n">
         <v>83.81099470625611</v>
@@ -35796,37 +35796,37 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.54653534772056</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
+        <v>4.016794787214116</v>
+      </c>
+      <c r="P16" t="n">
         <v>83.81099470625611</v>
       </c>
-      <c r="N16" t="n">
-        <v>42.56333013493381</v>
-      </c>
-      <c r="O16" t="n">
-        <v>83.81099470625611</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.137467133888292</v>
+        <v>1.137467133888149</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.10912031175924</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M17" t="n">
         <v>83.81099470625611</v>
@@ -35896,13 +35896,13 @@
         <v>78.25559268998299</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61235655646585</v>
+        <v>36.61235655646587</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>69.23167947462903</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>83.81099470625611</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2586170378897419</v>
+        <v>14.83793226951684</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>80.4246918898417</v>
+      </c>
+      <c r="N18" t="n">
         <v>83.81099470625611</v>
-      </c>
-      <c r="N18" t="n">
-        <v>80.4246918898417</v>
       </c>
       <c r="O18" t="n">
         <v>83.81099470625611</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.10912031175924</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M20" t="n">
         <v>83.81099470625611</v>
       </c>
       <c r="N20" t="n">
-        <v>78.51420972787271</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61235655646585</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.81099470625611</v>
+        <v>36.8709735943556</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>31.31557157808264</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.10912031175924</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="N23" t="n">
-        <v>83.81099470625625</v>
+        <v>78.25559268998299</v>
       </c>
       <c r="O23" t="n">
-        <v>83.81099470625625</v>
+        <v>36.61235655646587</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.2586170378897419</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>83.81099470625625</v>
+        <v>80.4246918898417</v>
       </c>
       <c r="N24" t="n">
-        <v>80.42469188984188</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="O24" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="P24" t="n">
-        <v>83.81099470625625</v>
+        <v>83.81099470625611</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0914600270221</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6599251576128</v>
+        <v>207.6599251576126</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9515269856723</v>
+        <v>261.9515269856722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6534013801681</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0979993638961</v>
+        <v>291.0979993638981</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4547632303789</v>
+        <v>249.4547632303788</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4966982457227</v>
+        <v>199.4966982457225</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4420411176423</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72367629591349</v>
+        <v>18.72367629591329</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.8825057580735</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.35833195678093</v>
+        <v>197.1558191555251</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0226216093612</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.657371347454982</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.091460027022</v>
+        <v>137.0914600270219</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6599251576127</v>
+        <v>207.6599251576126</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9515269856723</v>
+        <v>261.9515269856722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6534013801692</v>
+        <v>296.653401380169</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0979993638952</v>
+        <v>291.097999363896</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4547632303789</v>
+        <v>249.4547632303788</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4966982457226</v>
+        <v>199.4966982457225</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4420411176422</v>
+        <v>124.4420411176421</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7236762959134</v>
+        <v>18.72367629591345</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.9567756525167</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0226216093611</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08154926108108</v>
+        <v>82.01570330423708</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0914600270219</v>
+        <v>137.091460027022</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6599251576126</v>
+        <v>207.6599251576127</v>
       </c>
       <c r="L32" t="n">
         <v>261.9515269856722</v>
       </c>
       <c r="M32" t="n">
-        <v>296.653401380169</v>
+        <v>296.6534013801691</v>
       </c>
       <c r="N32" t="n">
         <v>291.097999363896</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4547632303788</v>
+        <v>249.4547632303789</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4966982457225</v>
+        <v>199.4966982457226</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4420411176421</v>
+        <v>124.4420411176422</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72367629591332</v>
+        <v>18.72367629591338</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.01570330423735</v>
+        <v>60.90486556297165</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1334593506263</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0226216093611</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.2672697472271</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>230.8357348778178</v>
       </c>
       <c r="L35" t="n">
-        <v>285.1273367058774</v>
+        <v>49.10912031175926</v>
       </c>
       <c r="M35" t="n">
-        <v>83.81099470625611</v>
+        <v>217.5742197673817</v>
       </c>
       <c r="N35" t="n">
-        <v>78.25559268998299</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O35" t="n">
         <v>272.630572950584</v>
@@ -37324,16 +37324,16 @@
         <v>222.6725079659277</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.83088258858811</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R35" t="n">
-        <v>41.89948601611852</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.777943972251135</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.60549357478748</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>85.54385488796363</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>84.86875305522807</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.83318106766001</v>
+        <v>32.83318106765998</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6751018327354581</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>160.2672697472271</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>60.42634504453964</v>
       </c>
       <c r="L38" t="n">
-        <v>285.1273367058773</v>
+        <v>285.1273367058774</v>
       </c>
       <c r="M38" t="n">
         <v>319.8292111003742</v>
       </c>
       <c r="N38" t="n">
-        <v>240.6877968655808</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O38" t="n">
-        <v>36.61235655646585</v>
+        <v>36.61235655646587</v>
       </c>
       <c r="P38" t="n">
         <v>222.6725079659277</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6178508378473</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>41.89948601611849</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.60549357478745</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.32906042540785</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.259760294655937</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37716,19 +37716,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>118.3770359556236</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.83318106765998</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6751018327354297</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.27993233516442</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.2672697472271</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>140.048766628559</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L41" t="n">
-        <v>49.10912031175924</v>
+        <v>285.1273367058774</v>
       </c>
       <c r="M41" t="n">
         <v>319.8292111003742</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2738090841011</v>
+        <v>282.0080365976087</v>
       </c>
       <c r="O41" t="n">
-        <v>36.61235655646585</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6725079659277</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.6178508378473</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.89948601611852</v>
+        <v>41.89948601611849</v>
       </c>
       <c r="S41" t="n">
-        <v>8.777943972251135</v>
+        <v>8.777943972251109</v>
       </c>
       <c r="T41" t="n">
-        <v>13.60549357478748</v>
+        <v>13.60549357478745</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>118.3770359556235</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>109.2573589812862</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.11967697433745</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>230.8357348778177</v>
       </c>
       <c r="L44" t="n">
-        <v>285.1273367058773</v>
+        <v>85.6940358443635</v>
       </c>
       <c r="M44" t="n">
-        <v>153.2912962042249</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N44" t="n">
-        <v>78.25559268998299</v>
+        <v>314.273809084101</v>
       </c>
       <c r="O44" t="n">
         <v>272.6305729505839</v>
@@ -38035,16 +38035,16 @@
         <v>222.6725079659276</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.6178508378472</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.89948601611843</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.77794397225105</v>
+        <v>8.777943972251052</v>
       </c>
       <c r="T44" t="n">
-        <v>13.6054935747874</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>134.5771477732237</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71052890569437</v>
+        <v>85.71052890569439</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>72.58882072006412</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>109.2573589812861</v>
       </c>
       <c r="R46" t="n">
-        <v>32.83318106765992</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6751018327353728</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.27993233516437</v>
+        <v>9.119676974337679</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
